--- a/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/grouping_result.xlsx
+++ b/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/grouping_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE221CE7-4013-4F3F-A8E2-377044DDDBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5C9F6A-19C7-4048-9553-80E1A7CAA375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24075" windowHeight="12885" xr2:uid="{1CB611AB-0FA2-4BD9-BB46-7BDCE764CC6B}"/>
   </bookViews>
@@ -55,13 +55,13 @@
     <t>Customers in ${_group.item.t_agg_customer_cus_country}</t>
   </si>
   <si>
-    <t>(Version: 1.0.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0) </t>
-  </si>
-  <si>
     <t>Customers per country</t>
+  </si>
+  <si>
+    <t>(Version: 1.0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0-6053) </t>
   </si>
   <si>
     <t/>
@@ -741,11 +741,11 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,10 +1076,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
     </row>
     <row r="124" ht="15.0" customHeight="true">
       <c r="A124" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" ht="15.0" customHeight="true">
       <c r="A125" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
